--- a/Data/Supplementatry Dataset 1.xlsx
+++ b/Data/Supplementatry Dataset 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlw119\Dropbox\My drive\PhD\MyBioFrag\Fragmentation_Project\NEE main files\Third Review MS\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlw119\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B0C11A-8A2D-4863-A194-3194C4ABF34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E363E1BC-4D48-4BDD-AE41-86EA6AA276BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10324" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10326" uniqueCount="1381">
   <si>
     <t>Dataset ID</t>
   </si>
@@ -5234,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="49" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="49" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5601,7 +5601,9 @@
       <c r="B31" s="25" t="s">
         <v>1326</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="4" t="s">
+        <v>1338</v>
+      </c>
       <c r="D31" s="30" t="s">
         <v>1342</v>
       </c>
@@ -5613,7 +5615,9 @@
       <c r="B32" s="25" t="s">
         <v>1366</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="4" t="s">
+        <v>1338</v>
+      </c>
       <c r="D32" s="30" t="s">
         <v>1342</v>
       </c>
